--- a/InputData/web-app/DpOCUfCC/Dollars per Output Currency Unit for Cost Curve.xlsx
+++ b/InputData/web-app/DpOCUfCC/Dollars per Output Currency Unit for Cost Curve.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Source:</t>
   </si>
@@ -48,9 +48,6 @@
     <t>One Output Currency Unit</t>
   </si>
   <si>
-    <t>none needed</t>
-  </si>
-  <si>
     <t>This version of the variable is used for the cost curve graph, which</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
   </si>
   <si>
     <t>Rupiah to USD</t>
+  </si>
+  <si>
+    <t>US Department of the Treasury</t>
+  </si>
+  <si>
+    <t>Treasury Reporting Rates of Exchange as of December 31, 2016</t>
+  </si>
+  <si>
+    <t>https://www.fiscal.treasury.gov/fsreports/rpt/treasRptRateExch/currentRates.htm</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -118,6 +124,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,68 +444,79 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
+      <c r="B4" s="5">
+        <v>2017</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -552,8 +572,8 @@
         <v>8</v>
       </c>
       <c r="B2" s="4">
-        <f>Conversion!A2/1000</f>
-        <v>13.38</v>
+        <f>1/(Conversion!A2/1000)</f>
+        <v>7.4738415545590423E-2</v>
       </c>
     </row>
   </sheetData>
